--- a/Jogos_do_Dia/2023-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="H2" t="n">
-        <v>4.45</v>
+        <v>5.53</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.78</v>
       </c>
       <c r="M2" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O2" t="n">
         <v>1.48</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>4.84</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>2.72</v>
       </c>
       <c r="M5" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O5" t="n">
         <v>1.48</v>
@@ -1025,25 +1025,25 @@
         <v>3.09</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>4.48</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>5.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="N7" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1402,37 +1402,37 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="H9" t="n">
-        <v>2.79</v>
+        <v>2.56</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="N9" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q9" t="n">
         <v>1.83</v>
@@ -1441,13 +1441,13 @@
         <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -1474,16 +1474,16 @@
         <v>2.24</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AF9" t="n">
         <v>2</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.09</v>
+        <v>2.85</v>
       </c>
       <c r="G10" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.25</v>
       </c>
       <c r="M10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.95</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.85</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="G12" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="H12" t="n">
-        <v>2.35</v>
+        <v>2.41</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>3.96</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N13" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.65</v>
+        <v>2.86</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2077,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1</v>
+        <v>4.95</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>1.74</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.45</v>
+        <v>2.31</v>
       </c>
       <c r="G19" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="I19" t="n">
         <v>1.01</v>
@@ -2523,10 +2523,10 @@
         <v>3.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -2612,37 +2612,37 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.58</v>
+        <v>3.22</v>
       </c>
       <c r="G20" t="n">
-        <v>3.58</v>
+        <v>3.37</v>
       </c>
       <c r="H20" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="N20" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="n">
         <v>1.73</v>
@@ -2651,13 +2651,13 @@
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V20" t="n">
         <v>1.48</v>
@@ -2684,19 +2684,19 @@
         <v>1.73</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE20" t="n">
         <v>1.68</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="21">
@@ -2722,37 +2722,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="G21" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.74</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="N21" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="Q21" t="n">
         <v>1.67</v>
@@ -2761,13 +2761,13 @@
         <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V21" t="n">
         <v>1.08</v>
@@ -2794,10 +2794,10 @@
         <v>2.88</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF21" t="n">
         <v>1.73</v>
@@ -2806,7 +2806,7 @@
         <v>2.18</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G22" t="n">
-        <v>3.74</v>
+        <v>3.62</v>
       </c>
       <c r="H22" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.8</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="G25" t="n">
-        <v>4.24</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>4.14</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="H26" t="n">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="n">
         <v>1.01</v>
@@ -3293,10 +3293,10 @@
         <v>3.64</v>
       </c>
       <c r="M26" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="N26" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="G27" t="n">
-        <v>3.76</v>
+        <v>3.62</v>
       </c>
       <c r="H27" t="n">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="I27" t="n">
         <v>1.03</v>
@@ -3403,10 +3403,10 @@
         <v>4.78</v>
       </c>
       <c r="M27" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N27" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="G28" t="n">
-        <v>3.64</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.26</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
         <v>1.02</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>1.02</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>4.04</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="I30" t="n">
         <v>1.03</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>1.02</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G32" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>1.01</v>
@@ -3953,10 +3953,10 @@
         <v>3.7</v>
       </c>
       <c r="M32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N32" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="O32" t="n">
         <v>1.38</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G33" t="n">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.58</v>
+        <v>3.65</v>
       </c>
       <c r="I33" t="n">
         <v>1.03</v>
@@ -4152,37 +4152,37 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="G34" t="n">
-        <v>4.04</v>
+        <v>3.77</v>
       </c>
       <c r="H34" t="n">
-        <v>4.58</v>
+        <v>4.35</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M34" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="N34" t="n">
         <v>2.11</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q34" t="n">
         <v>1.73</v>
@@ -4191,13 +4191,13 @@
         <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
         <v>1.65</v>
@@ -4227,16 +4227,16 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF34" t="n">
         <v>1.78</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="35">
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="G35" t="n">
-        <v>4.3</v>
+        <v>4.08</v>
       </c>
       <c r="H35" t="n">
-        <v>4.64</v>
+        <v>4.35</v>
       </c>
       <c r="I35" t="n">
         <v>1.02</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="G36" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="I36" t="n">
         <v>1.04</v>
@@ -4393,10 +4393,10 @@
         <v>4.35</v>
       </c>
       <c r="M36" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="N36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
         <v>1.33</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.54</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -4506,7 +4506,7 @@
         <v>1.8</v>
       </c>
       <c r="N37" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
         <v>1.33</v>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="G38" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="H38" t="n">
         <v>2.85</v>
@@ -4613,10 +4613,10 @@
         <v>2.6</v>
       </c>
       <c r="M38" t="n">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="N38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.57</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="G39" t="n">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.42</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
         <v>1.06</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="G41" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
-        <v>5.35</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
         <v>1.06</v>
@@ -4946,7 +4946,7 @@
         <v>2.1</v>
       </c>
       <c r="N41" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="G42" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="I42" t="n">
         <v>1.08</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="G43" t="n">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="I43" t="n">
         <v>1.1</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="I44" t="n">
         <v>1.05</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="G45" t="n">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="I45" t="n">
         <v>1.03</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="G46" t="n">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="I46" t="n">
         <v>1.05</v>
@@ -5493,10 +5493,10 @@
         <v>3.17</v>
       </c>
       <c r="M46" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="N46" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O46" t="n">
         <v>1.41</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
         <v>1.01</v>
@@ -5603,7 +5603,7 @@
         <v>3.55</v>
       </c>
       <c r="M47" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="N47" t="n">
         <v>2</v>
@@ -5654,7 +5654,7 @@
         <v>2.41</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE47" t="n">
         <v>1.29</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G48" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="H48" t="n">
-        <v>4.24</v>
+        <v>4.45</v>
       </c>
       <c r="I48" t="n">
         <v>1.05</v>
@@ -5713,10 +5713,10 @@
         <v>3.65</v>
       </c>
       <c r="M48" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="N48" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="O48" t="n">
         <v>1.36</v>
@@ -5805,13 +5805,13 @@
         <v>2.45</v>
       </c>
       <c r="G49" t="n">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J49" t="n">
         <v>8.5</v>
@@ -5823,10 +5823,10 @@
         <v>2.95</v>
       </c>
       <c r="M49" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="N49" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -5865,13 +5865,13 @@
         <v>2.8</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>1.66</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH49" t="n">
         <v>0</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H50" t="n">
-        <v>5.05</v>
+        <v>4.69</v>
       </c>
       <c r="I50" t="n">
         <v>1.05</v>
@@ -5933,7 +5933,7 @@
         <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="N50" t="n">
         <v>1.78</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="G51" t="n">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
       <c r="H51" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="I51" t="n">
         <v>1.08</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G52" t="n">
-        <v>4.12</v>
+        <v>3.93</v>
       </c>
       <c r="H52" t="n">
-        <v>6.05</v>
+        <v>6.84</v>
       </c>
       <c r="I52" t="n">
         <v>1.06</v>
@@ -6156,7 +6156,7 @@
         <v>1.96</v>
       </c>
       <c r="N52" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O52" t="n">
         <v>1.43</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G53" t="n">
-        <v>4.08</v>
+        <v>3.95</v>
       </c>
       <c r="H53" t="n">
-        <v>6.2</v>
+        <v>6.39</v>
       </c>
       <c r="I53" t="n">
         <v>1.06</v>
@@ -6263,10 +6263,10 @@
         <v>3.24</v>
       </c>
       <c r="M53" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="N53" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O53" t="n">
         <v>1.4</v>
@@ -6352,25 +6352,25 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="G54" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K54" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="L54" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="M54" t="n">
         <v>2.45</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="G55" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3.06</v>
       </c>
       <c r="I55" t="n">
         <v>1.08</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="G56" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="H56" t="n">
-        <v>2.79</v>
+        <v>2.68</v>
       </c>
       <c r="I56" t="n">
         <v>1.04</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="G57" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="H57" t="n">
-        <v>2.53</v>
+        <v>2.62</v>
       </c>
       <c r="I57" t="n">
         <v>1.08</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="G58" t="n">
-        <v>3.66</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="I58" t="n">
         <v>1.03</v>
@@ -6813,10 +6813,10 @@
         <v>3.9</v>
       </c>
       <c r="M58" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="N58" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O58" t="n">
         <v>1.3</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="G59" t="n">
         <v>3.26</v>
       </c>
       <c r="H59" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="I59" t="n">
         <v>1.07</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G60" t="n">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I60" t="n">
         <v>1.06</v>
@@ -7033,10 +7033,10 @@
         <v>3.4</v>
       </c>
       <c r="M60" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="N60" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="O60" t="n">
         <v>1.45</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="G61" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="H61" t="n">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="I61" t="n">
         <v>1.03</v>
@@ -7143,10 +7143,10 @@
         <v>3.8</v>
       </c>
       <c r="M61" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N61" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
         <v>1.35</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="G62" t="n">
-        <v>3.82</v>
+        <v>3.63</v>
       </c>
       <c r="H62" t="n">
-        <v>4.84</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
         <v>1.04</v>
@@ -7253,10 +7253,10 @@
         <v>3.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="N62" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O62" t="n">
         <v>1.38</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="G63" t="n">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
       <c r="H63" t="n">
-        <v>3.58</v>
+        <v>3.23</v>
       </c>
       <c r="I63" t="n">
         <v>1.04</v>
@@ -7363,10 +7363,10 @@
         <v>3.4</v>
       </c>
       <c r="M63" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="N63" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="O63" t="n">
         <v>1.4</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.76</v>
+        <v>3.97</v>
       </c>
       <c r="G64" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="I64" t="n">
         <v>1.03</v>
@@ -7473,10 +7473,10 @@
         <v>4.1</v>
       </c>
       <c r="M64" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="N64" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="O64" t="n">
         <v>1.32</v>
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.43</v>
+        <v>2.53</v>
       </c>
       <c r="G65" t="n">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
-        <v>2.73</v>
+        <v>2.55</v>
       </c>
       <c r="I65" t="n">
         <v>1.04</v>
@@ -7583,10 +7583,10 @@
         <v>3.7</v>
       </c>
       <c r="M65" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N65" t="n">
         <v>1.95</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1.85</v>
       </c>
       <c r="O65" t="n">
         <v>1.35</v>
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="G66" t="n">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="H66" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="I66" t="n">
         <v>1.05</v>
@@ -7693,10 +7693,10 @@
         <v>3.4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="N66" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O66" t="n">
         <v>1.36</v>
@@ -7785,10 +7785,10 @@
         <v>2.07</v>
       </c>
       <c r="G67" t="n">
-        <v>3.52</v>
+        <v>3.47</v>
       </c>
       <c r="H67" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I67" t="n">
         <v>1.02</v>
@@ -7803,10 +7803,10 @@
         <v>3.8</v>
       </c>
       <c r="M67" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="N67" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
@@ -7854,19 +7854,19 @@
         <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G68" t="n">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="H68" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="I68" t="n">
         <v>1.03</v>
@@ -7913,10 +7913,10 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="N68" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="G69" t="n">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="H69" t="n">
-        <v>3.06</v>
+        <v>2.94</v>
       </c>
       <c r="I69" t="n">
         <v>1.07</v>
@@ -8023,10 +8023,10 @@
         <v>2.95</v>
       </c>
       <c r="M69" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="N69" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="O69" t="n">
         <v>1.44</v>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="G70" t="n">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="H70" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="I70" t="n">
         <v>1.02</v>
@@ -8133,10 +8133,10 @@
         <v>4.6</v>
       </c>
       <c r="M70" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="N70" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="O70" t="n">
         <v>1.29</v>
@@ -8222,13 +8222,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.61</v>
+        <v>2.47</v>
       </c>
       <c r="G71" t="n">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="H71" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="I71" t="n">
         <v>1.01</v>
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.78</v>
+        <v>4.1</v>
       </c>
       <c r="G72" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="H72" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="I72" t="n">
         <v>1.03</v>
@@ -8353,10 +8353,10 @@
         <v>3.95</v>
       </c>
       <c r="M72" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="N72" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="O72" t="n">
         <v>1.33</v>
@@ -8442,10 +8442,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.56</v>
+        <v>4.3</v>
       </c>
       <c r="G73" t="n">
-        <v>3.78</v>
+        <v>3.65</v>
       </c>
       <c r="H73" t="n">
         <v>1.71</v>
@@ -8463,10 +8463,10 @@
         <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="N73" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
         <v>1.33</v>
@@ -8552,16 +8552,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
-        <v>4.86</v>
+        <v>5.5</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J74" t="n">
         <v>9.25</v>
@@ -8573,10 +8573,10 @@
         <v>3.05</v>
       </c>
       <c r="M74" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="N74" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="O74" t="n">
         <v>1.44</v>
@@ -8662,13 +8662,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="G75" t="n">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="H75" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -8772,13 +8772,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="G76" t="n">
-        <v>3.94</v>
+        <v>3.75</v>
       </c>
       <c r="H76" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
         <v>1.06</v>
@@ -8793,10 +8793,10 @@
         <v>3.25</v>
       </c>
       <c r="M76" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="O76" t="n">
         <v>1.39</v>
@@ -8882,13 +8882,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -8906,7 +8906,7 @@
         <v>2.15</v>
       </c>
       <c r="N77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -8992,13 +8992,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -9013,10 +9013,10 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -9102,13 +9102,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="I79" t="n">
         <v>1.06</v>
@@ -9123,10 +9123,10 @@
         <v>3.4</v>
       </c>
       <c r="M79" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="N79" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="O79" t="n">
         <v>1.36</v>
@@ -9212,13 +9212,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
         <v>1.07</v>
@@ -9233,10 +9233,10 @@
         <v>3.25</v>
       </c>
       <c r="M80" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="O80" t="n">
         <v>1.4</v>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="G81" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="H81" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I81" t="n">
         <v>1.03</v>
@@ -9343,10 +9343,10 @@
         <v>3.75</v>
       </c>
       <c r="M81" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="N81" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O81" t="n">
         <v>1.31</v>
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G82" t="n">
         <v>3.6</v>
       </c>
       <c r="H82" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="I82" t="n">
         <v>1.04</v>
@@ -9456,7 +9456,7 @@
         <v>1.9</v>
       </c>
       <c r="N82" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O82" t="n">
         <v>1.36</v>
@@ -9542,13 +9542,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="G83" t="n">
-        <v>4.32</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="I83" t="n">
         <v>1.02</v>
@@ -9563,10 +9563,10 @@
         <v>4.2</v>
       </c>
       <c r="M83" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N83" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O83" t="n">
         <v>1.28</v>
@@ -9652,13 +9652,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G84" t="n">
-        <v>3.94</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>5.15</v>
+        <v>6</v>
       </c>
       <c r="I84" t="n">
         <v>1.05</v>
@@ -9673,7 +9673,7 @@
         <v>3.4</v>
       </c>
       <c r="M84" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="N84" t="n">
         <v>1.9</v>
@@ -9762,13 +9762,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="G85" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="I85" t="n">
         <v>1.05</v>
@@ -9786,7 +9786,7 @@
         <v>1.9</v>
       </c>
       <c r="N85" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O85" t="n">
         <v>1.36</v>
@@ -9872,13 +9872,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="I86" t="n">
         <v>1.04</v>
@@ -9893,10 +9893,10 @@
         <v>3.75</v>
       </c>
       <c r="M86" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O86" t="n">
         <v>1.34</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="G87" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
-        <v>5.05</v>
+        <v>4.33</v>
       </c>
       <c r="I87" t="n">
         <v>1.04</v>
@@ -10003,7 +10003,7 @@
         <v>3.6</v>
       </c>
       <c r="M87" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N87" t="n">
         <v>1.87</v>
@@ -10092,13 +10092,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="I88" t="n">
         <v>1.05</v>
@@ -10113,10 +10113,10 @@
         <v>3.25</v>
       </c>
       <c r="M88" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="N88" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O88" t="n">
         <v>1.4</v>
@@ -10202,13 +10202,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -10223,10 +10223,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -10312,13 +10312,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="G90" t="n">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="H90" t="n">
-        <v>9.9</v>
+        <v>13</v>
       </c>
       <c r="I90" t="n">
         <v>1.02</v>
@@ -10422,13 +10422,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="I91" t="n">
         <v>1.04</v>
@@ -10443,7 +10443,7 @@
         <v>3.7</v>
       </c>
       <c r="M91" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N91" t="n">
         <v>2</v>
@@ -10532,13 +10532,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="G92" t="n">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="H92" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
         <v>1.1</v>
@@ -10642,13 +10642,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.96</v>
+        <v>3.75</v>
       </c>
       <c r="G93" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
         <v>1.06</v>
@@ -10663,10 +10663,10 @@
         <v>3.25</v>
       </c>
       <c r="M93" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O93" t="n">
         <v>1.4</v>
@@ -10752,13 +10752,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.76</v>
+        <v>2.55</v>
       </c>
       <c r="G94" t="n">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="I94" t="n">
         <v>1.08</v>
@@ -10773,10 +10773,10 @@
         <v>2.9</v>
       </c>
       <c r="M94" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N94" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O94" t="n">
         <v>1.47</v>
@@ -10862,13 +10862,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="G95" t="n">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="H95" t="n">
-        <v>3.96</v>
+        <v>3.75</v>
       </c>
       <c r="I95" t="n">
         <v>1.09</v>
@@ -10883,10 +10883,10 @@
         <v>2.8</v>
       </c>
       <c r="M95" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N95" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O95" t="n">
         <v>1.5</v>
@@ -10975,10 +10975,10 @@
         <v>1.95</v>
       </c>
       <c r="G96" t="n">
-        <v>3.26</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
-        <v>4.24</v>
+        <v>4.75</v>
       </c>
       <c r="I96" t="n">
         <v>1.11</v>
@@ -10987,16 +10987,16 @@
         <v>6</v>
       </c>
       <c r="K96" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="L96" t="n">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="M96" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="N96" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O96" t="n">
         <v>1.57</v>
@@ -11082,13 +11082,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H97" t="n">
-        <v>4.52</v>
+        <v>5.5</v>
       </c>
       <c r="I97" t="n">
         <v>1.07</v>
@@ -11103,10 +11103,10 @@
         <v>3</v>
       </c>
       <c r="M97" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="N97" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O97" t="n">
         <v>1.43</v>
@@ -11192,13 +11192,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="I98" t="n">
         <v>1.08</v>
@@ -11213,7 +11213,7 @@
         <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N98" t="n">
         <v>1.68</v>
@@ -11302,13 +11302,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="G99" t="n">
-        <v>3.19</v>
+        <v>3.4</v>
       </c>
       <c r="H99" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -11323,10 +11323,10 @@
         <v>4.15</v>
       </c>
       <c r="M99" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="N99" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="O99" t="n">
         <v>1.31</v>
@@ -11412,13 +11412,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G100" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H100" t="n">
-        <v>4.88</v>
+        <v>5.5</v>
       </c>
       <c r="I100" t="n">
         <v>1.03</v>
@@ -11522,13 +11522,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H101" t="n">
-        <v>3.36</v>
       </c>
       <c r="I101" t="n">
         <v>1.08</v>
@@ -11632,13 +11632,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="I102" t="n">
         <v>1.01</v>
@@ -11653,10 +11653,10 @@
         <v>3.63</v>
       </c>
       <c r="M102" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="N102" t="n">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="O102" t="n">
         <v>1.35</v>
@@ -11742,13 +11742,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="G103" t="n">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I103" t="n">
         <v>1.01</v>
@@ -11763,10 +11763,10 @@
         <v>5.1</v>
       </c>
       <c r="M103" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="N103" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="O103" t="n">
         <v>1.25</v>
@@ -11852,13 +11852,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.3</v>
+        <v>2.71</v>
       </c>
       <c r="G104" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="H104" t="n">
-        <v>2.23</v>
+        <v>2.39</v>
       </c>
       <c r="I104" t="n">
         <v>1.08</v>
@@ -11873,7 +11873,7 @@
         <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N104" t="n">
         <v>1.67</v>
@@ -11962,13 +11962,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="H105" t="n">
-        <v>3.76</v>
+        <v>3.83</v>
       </c>
       <c r="I105" t="n">
         <v>1.1</v>
@@ -11977,16 +11977,16 @@
         <v>5.8</v>
       </c>
       <c r="K105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="N105" t="n">
         <v>1.5</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M105" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1.52</v>
       </c>
       <c r="O105" t="n">
         <v>1.53</v>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.36</v>
+        <v>3.65</v>
       </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="I106" t="n">
         <v>1.03</v>
@@ -12292,13 +12292,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="G108" t="n">
-        <v>4.04</v>
+        <v>4.75</v>
       </c>
       <c r="H108" t="n">
-        <v>4.84</v>
+        <v>4.35</v>
       </c>
       <c r="I108" t="n">
         <v>1.03</v>
@@ -12313,10 +12313,10 @@
         <v>4.5</v>
       </c>
       <c r="M108" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="N108" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="O108" t="n">
         <v>1.3</v>
@@ -12402,13 +12402,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.92</v>
+        <v>3.5</v>
       </c>
       <c r="G109" t="n">
-        <v>3.98</v>
+        <v>4.25</v>
       </c>
       <c r="H109" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I109" t="n">
         <v>1.02</v>
@@ -12512,13 +12512,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.99</v>
+        <v>3.35</v>
       </c>
       <c r="G110" t="n">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
       <c r="H110" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
         <v>1.01</v>
@@ -12533,10 +12533,10 @@
         <v>3.75</v>
       </c>
       <c r="M110" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="N110" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="O110" t="n">
         <v>1.33</v>
@@ -12622,13 +12622,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G111" t="n">
-        <v>3.72</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
-        <v>4.04</v>
+        <v>3.25</v>
       </c>
       <c r="I111" t="n">
         <v>1.05</v>
@@ -12643,10 +12643,10 @@
         <v>3.6</v>
       </c>
       <c r="M111" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N111" t="n">
         <v>1.88</v>
-      </c>
-      <c r="N111" t="n">
-        <v>1.92</v>
       </c>
       <c r="O111" t="n">
         <v>1.36</v>
@@ -12732,13 +12732,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G112" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="I112" t="n">
         <v>1.01</v>
@@ -12753,10 +12753,10 @@
         <v>4.3</v>
       </c>
       <c r="M112" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N112" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -12845,10 +12845,10 @@
         <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="H113" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I113" t="n">
         <v>1.01</v>
@@ -12863,7 +12863,7 @@
         <v>3.48</v>
       </c>
       <c r="M113" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="N113" t="n">
         <v>2</v>
@@ -12952,13 +12952,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="G114" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="H114" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="I114" t="n">
         <v>1.06</v>
@@ -12973,10 +12973,10 @@
         <v>2.95</v>
       </c>
       <c r="M114" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O114" t="n">
         <v>1.46</v>
@@ -13062,37 +13062,37 @@
         </is>
       </c>
       <c r="F115" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J115" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="n">
         <v>1.73</v>
       </c>
-      <c r="G115" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H115" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="N115" t="n">
-        <v>1.78</v>
-      </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P115" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Q115" t="n">
         <v>2</v>
@@ -13101,13 +13101,13 @@
         <v>1.73</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="V115" t="n">
         <v>2.14</v>
@@ -13172,52 +13172,52 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H116" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L116" t="n">
         <v>2.9</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
       <c r="M116" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N116" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P116" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V116" t="n">
         <v>1.71</v>
@@ -13291,43 +13291,43 @@
         <v>17</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V117" t="n">
         <v>2.71</v>
@@ -13392,13 +13392,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G118" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="I118" t="n">
         <v>1.08</v>
@@ -13502,37 +13502,37 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G119" t="n">
-        <v>3.28</v>
+        <v>3.75</v>
       </c>
       <c r="H119" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>17.75</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M119" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="N119" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q119" t="n">
         <v>1.52</v>
@@ -13541,13 +13541,13 @@
         <v>2.4</v>
       </c>
       <c r="S119" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U119" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V119" t="n">
         <v>1.55</v>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="G120" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="H120" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="I120" t="n">
         <v>1.09</v>
@@ -13633,10 +13633,10 @@
         <v>2.7</v>
       </c>
       <c r="M120" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="N120" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O120" t="n">
         <v>1.52</v>
@@ -13722,13 +13722,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G121" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="H121" t="n">
-        <v>5.5</v>
+        <v>5.49</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -13743,10 +13743,10 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="N121" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -13832,13 +13832,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="G122" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="H122" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I122" t="n">
         <v>1.03</v>
@@ -13853,10 +13853,10 @@
         <v>3.95</v>
       </c>
       <c r="M122" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N122" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -14052,13 +14052,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="G124" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="H124" t="n">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="I124" t="n">
         <v>1.05</v>
@@ -14073,10 +14073,10 @@
         <v>3.4</v>
       </c>
       <c r="M124" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="N124" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O124" t="n">
         <v>1.4</v>
@@ -14162,13 +14162,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G125" t="n">
-        <v>4.24</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>4.68</v>
+        <v>4.75</v>
       </c>
       <c r="I125" t="n">
         <v>1.02</v>
@@ -14272,13 +14272,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="G126" t="n">
-        <v>3.94</v>
+        <v>3.52</v>
       </c>
       <c r="H126" t="n">
-        <v>5.8</v>
+        <v>4.48</v>
       </c>
       <c r="I126" t="n">
         <v>1.07</v>
@@ -14293,10 +14293,10 @@
         <v>3</v>
       </c>
       <c r="M126" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="N126" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="O126" t="n">
         <v>1.43</v>
@@ -14492,13 +14492,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="G128" t="n">
-        <v>4.04</v>
+        <v>4.25</v>
       </c>
       <c r="H128" t="n">
-        <v>4.74</v>
+        <v>3.85</v>
       </c>
       <c r="I128" t="n">
         <v>1.03</v>
@@ -14513,10 +14513,10 @@
         <v>4.33</v>
       </c>
       <c r="M128" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N128" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O128" t="n">
         <v>1.29</v>
@@ -14602,10 +14602,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="G129" t="n">
-        <v>4.26</v>
+        <v>4.1</v>
       </c>
       <c r="H129" t="n">
         <v>1.68</v>
@@ -14623,10 +14623,10 @@
         <v>5.75</v>
       </c>
       <c r="M129" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="N129" t="n">
-        <v>2.26</v>
+        <v>2.51</v>
       </c>
       <c r="O129" t="n">
         <v>1.21</v>
@@ -14712,37 +14712,37 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="G130" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="H130" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="M130" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="N130" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q130" t="n">
         <v>1.8</v>
@@ -14751,13 +14751,13 @@
         <v>1.91</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U130" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V130" t="n">
         <v>2.21</v>
@@ -14822,13 +14822,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.19</v>
+        <v>2.69</v>
       </c>
       <c r="G131" t="n">
-        <v>3.34</v>
+        <v>2.94</v>
       </c>
       <c r="H131" t="n">
-        <v>3.34</v>
+        <v>2.79</v>
       </c>
       <c r="I131" t="n">
         <v>1.04</v>
@@ -14843,10 +14843,10 @@
         <v>2.71</v>
       </c>
       <c r="M131" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="N131" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="O131" t="n">
         <v>1.5</v>
@@ -15042,13 +15042,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="G133" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="H133" t="n">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="I133" t="n">
         <v>1.09</v>
@@ -15063,10 +15063,10 @@
         <v>2.7</v>
       </c>
       <c r="M133" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="N133" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="O133" t="n">
         <v>1.51</v>
@@ -15152,13 +15152,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="G134" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="I134" t="n">
         <v>1.02</v>
@@ -15173,10 +15173,10 @@
         <v>3.2</v>
       </c>
       <c r="M134" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="N134" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="O134" t="n">
         <v>1.4</v>
@@ -15372,10 +15372,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G136" t="n">
-        <v>3.72</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>5</v>
@@ -15396,7 +15396,7 @@
         <v>2.1</v>
       </c>
       <c r="N136" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O136" t="n">
         <v>1.44</v>
@@ -15482,13 +15482,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G137" t="n">
-        <v>4.2</v>
+        <v>3.78</v>
       </c>
       <c r="H137" t="n">
-        <v>4.04</v>
+        <v>3.63</v>
       </c>
       <c r="I137" t="n">
         <v>1.02</v>
@@ -15503,10 +15503,10 @@
         <v>5</v>
       </c>
       <c r="M137" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="N137" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="O137" t="n">
         <v>1.25</v>
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="H138" t="n">
-        <v>2.97</v>
+        <v>2.77</v>
       </c>
       <c r="I138" t="n">
         <v>1.1</v>
@@ -15613,10 +15613,10 @@
         <v>2.35</v>
       </c>
       <c r="M138" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="N138" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="O138" t="n">
         <v>1.57</v>
@@ -15702,13 +15702,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G139" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H139" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I139" t="n">
         <v>1.03</v>
@@ -15723,10 +15723,10 @@
         <v>2.95</v>
       </c>
       <c r="M139" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="N139" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O139" t="n">
         <v>1.44</v>
@@ -15812,13 +15812,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G140" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="H140" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="I140" t="n">
         <v>1.08</v>
@@ -15922,13 +15922,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3.48</v>
+        <v>2.91</v>
       </c>
       <c r="G141" t="n">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="H141" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="I141" t="n">
         <v>1.06</v>
@@ -15946,7 +15946,7 @@
         <v>1.99</v>
       </c>
       <c r="N141" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="O141" t="n">
         <v>1.4</v>
@@ -16032,13 +16032,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="G142" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="H142" t="n">
-        <v>3.72</v>
+        <v>4.12</v>
       </c>
       <c r="I142" t="n">
         <v>1.1</v>
@@ -16047,16 +16047,16 @@
         <v>6.5</v>
       </c>
       <c r="K142" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="L142" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="M142" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="N142" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O142" t="n">
         <v>1.44</v>
@@ -16142,13 +16142,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="G143" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H143" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="I143" t="n">
         <v>1.03</v>
@@ -16163,10 +16163,10 @@
         <v>4.15</v>
       </c>
       <c r="M143" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N143" t="n">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="O143" t="n">
         <v>1.3</v>
@@ -16252,13 +16252,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="G144" t="n">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="H144" t="n">
-        <v>22</v>
+        <v>9.6</v>
       </c>
       <c r="I144" t="n">
         <v>1.03</v>
@@ -16273,10 +16273,10 @@
         <v>4.33</v>
       </c>
       <c r="M144" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="N144" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="O144" t="n">
         <v>1.29</v>
@@ -16362,13 +16362,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="G145" t="n">
-        <v>3.58</v>
+        <v>4.03</v>
       </c>
       <c r="H145" t="n">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
       <c r="I145" t="n">
         <v>1.02</v>
@@ -16383,10 +16383,10 @@
         <v>3.48</v>
       </c>
       <c r="M145" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="N145" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="O145" t="n">
         <v>1.36</v>
@@ -16582,13 +16582,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.89</v>
+        <v>2.27</v>
       </c>
       <c r="G147" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="H147" t="n">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="I147" t="n">
         <v>1.03</v>
@@ -16603,10 +16603,10 @@
         <v>5.2</v>
       </c>
       <c r="M147" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="N147" t="n">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="O147" t="n">
         <v>1.3</v>
@@ -16692,10 +16692,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="G148" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H148" t="n">
         <v>10</v>
@@ -16802,13 +16802,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
         <v>3.48</v>
       </c>
       <c r="H149" t="n">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="I149" t="n">
         <v>1.07</v>
@@ -16823,10 +16823,10 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="N149" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="O149" t="n">
         <v>1.4</v>
@@ -16874,16 +16874,16 @@
         <v>3.25</v>
       </c>
       <c r="AD149" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE149" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF149" t="n">
         <v>1.68</v>
       </c>
       <c r="AG149" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH149" t="n">
         <v>0</v>
@@ -16912,13 +16912,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="G150" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="H150" t="n">
-        <v>4.68</v>
+        <v>4.75</v>
       </c>
       <c r="I150" t="n">
         <v>1.06</v>
@@ -17022,37 +17022,37 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="G151" t="n">
-        <v>3.24</v>
+        <v>3.05</v>
       </c>
       <c r="H151" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M151" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="N151" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P151" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q151" t="n">
         <v>1.85</v>
@@ -17061,13 +17061,13 @@
         <v>1.85</v>
       </c>
       <c r="S151" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U151" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V151" t="n">
         <v>1.38</v>
@@ -17132,13 +17132,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2.03</v>
+        <v>2.55</v>
       </c>
       <c r="G152" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="H152" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="I152" t="n">
         <v>1.06</v>
@@ -17153,10 +17153,10 @@
         <v>3.2</v>
       </c>
       <c r="M152" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="N152" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="O152" t="n">
         <v>1.44</v>
@@ -17242,13 +17242,13 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="G153" t="n">
-        <v>2.81</v>
+        <v>2.94</v>
       </c>
       <c r="H153" t="n">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="I153" t="n">
         <v>1.12</v>
@@ -17260,7 +17260,7 @@
         <v>1.5</v>
       </c>
       <c r="L153" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="M153" t="n">
         <v>2.38</v>
@@ -17352,13 +17352,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="G154" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H154" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="I154" t="n">
         <v>1.02</v>
@@ -17373,10 +17373,10 @@
         <v>5.5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="N154" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="O154" t="n">
         <v>1.25</v>
@@ -17462,13 +17462,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="G155" t="n">
-        <v>4.04</v>
+        <v>3.75</v>
       </c>
       <c r="H155" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="I155" t="n">
         <v>1.01</v>
@@ -17483,10 +17483,10 @@
         <v>6.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="N155" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="O155" t="n">
         <v>1.22</v>
@@ -17572,13 +17572,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="G156" t="n">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="H156" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="I156" t="n">
         <v>1.07</v>
@@ -17593,10 +17593,10 @@
         <v>2.9</v>
       </c>
       <c r="M156" t="n">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="N156" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O156" t="n">
         <v>1.46</v>
@@ -17682,13 +17682,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="G157" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H157" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="I157" t="n">
         <v>1.01</v>
@@ -17792,13 +17792,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="G158" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="H158" t="n">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="I158" t="n">
         <v>1.04</v>
@@ -17902,13 +17902,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="G159" t="n">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="H159" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="I159" t="n">
         <v>1.05</v>
@@ -17923,10 +17923,10 @@
         <v>3.4</v>
       </c>
       <c r="M159" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="N159" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O159" t="n">
         <v>1.38</v>
@@ -18012,13 +18012,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="G160" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="H160" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="I160" t="n">
         <v>1.04</v>
@@ -18033,10 +18033,10 @@
         <v>2.65</v>
       </c>
       <c r="M160" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="N160" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O160" t="n">
         <v>1.51</v>
@@ -18232,13 +18232,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4.26</v>
+        <v>4.47</v>
       </c>
       <c r="G162" t="n">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="H162" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -18253,10 +18253,10 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="N162" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O162" t="n">
         <v>0</v>
@@ -18342,10 +18342,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3.94</v>
+        <v>3.88</v>
       </c>
       <c r="G163" t="n">
-        <v>3.22</v>
+        <v>2.96</v>
       </c>
       <c r="H163" t="n">
         <v>1.94</v>
@@ -18363,10 +18363,10 @@
         <v>2.63</v>
       </c>
       <c r="M163" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="N163" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O163" t="n">
         <v>1.5</v>
@@ -18452,13 +18452,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="G164" t="n">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="H164" t="n">
-        <v>3.44</v>
+        <v>3.17</v>
       </c>
       <c r="I164" t="n">
         <v>1.06</v>
@@ -18473,10 +18473,10 @@
         <v>2.35</v>
       </c>
       <c r="M164" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N164" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O164" t="n">
         <v>1.57</v>
@@ -18562,13 +18562,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="G165" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="H165" t="n">
-        <v>4.62</v>
+        <v>4.83</v>
       </c>
       <c r="I165" t="n">
         <v>1.03</v>
@@ -18583,10 +18583,10 @@
         <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N165" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="O165" t="n">
         <v>1.36</v>
@@ -18672,13 +18672,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G166" t="n">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="H166" t="n">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="I166" t="n">
         <v>1.07</v>
@@ -18693,10 +18693,10 @@
         <v>2.7</v>
       </c>
       <c r="M166" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N166" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O166" t="n">
         <v>1.52</v>
@@ -18788,7 +18788,7 @@
         <v>3.2</v>
       </c>
       <c r="H167" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="I167" t="n">
         <v>1.06</v>
@@ -18803,10 +18803,10 @@
         <v>2.9</v>
       </c>
       <c r="M167" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="N167" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O167" t="n">
         <v>1.44</v>
@@ -19002,13 +19002,13 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -19023,10 +19023,10 @@
         <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O169" t="n">
         <v>0</v>
@@ -19112,13 +19112,13 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="G170" t="n">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="H170" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="I170" t="n">
         <v>1.07</v>
@@ -19130,7 +19130,7 @@
         <v>1.5</v>
       </c>
       <c r="L170" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M170" t="n">
         <v>2.37</v>
@@ -19222,13 +19222,13 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="G171" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H171" t="n">
-        <v>3.75</v>
+        <v>5.95</v>
       </c>
       <c r="I171" t="n">
         <v>1.05</v>
@@ -19243,10 +19243,10 @@
         <v>3.5</v>
       </c>
       <c r="M171" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N171" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O171" t="n">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="G2" t="n">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="H2" t="n">
-        <v>5.53</v>
+        <v>4.66</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.78</v>
       </c>
       <c r="M2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O2" t="n">
         <v>1.48</v>
@@ -680,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>1.95</v>
@@ -790,10 +790,10 @@
         <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
         <v>1.95</v>
@@ -900,10 +900,10 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>1.67</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>4.84</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>2.72</v>
       </c>
       <c r="M5" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
         <v>1.48</v>
@@ -1010,10 +1010,10 @@
         <v>2.05</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X5" t="n">
         <v>1.75</v>
@@ -1120,10 +1120,10 @@
         <v>1.37</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="X6" t="n">
         <v>1.43</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1230,10 +1230,10 @@
         <v>2.65</v>
       </c>
       <c r="V7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
         <v>2.05</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.96</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1340,10 +1340,10 @@
         <v>1.72</v>
       </c>
       <c r="V8" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>1.37</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
@@ -1435,10 +1435,10 @@
         <v>2.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
         <v>1.42</v>
@@ -1465,28 +1465,28 @@
         <v>3.02</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>2.24</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="AF9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1560,7 +1560,7 @@
         <v>1.32</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.27</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.24</v>
+        <v>2.85</v>
       </c>
       <c r="H12" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1753,10 +1753,10 @@
         <v>2.8</v>
       </c>
       <c r="M12" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="N12" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="G13" t="n">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.96</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="H14" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.19</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="L15" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="M15" t="n">
         <v>2.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.72</v>
+        <v>5.75</v>
       </c>
       <c r="G17" t="n">
-        <v>3.07</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="G18" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>4.95</v>
+        <v>5.75</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -2413,10 +2413,10 @@
         <v>3.72</v>
       </c>
       <c r="M18" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="N18" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
         <v>1.01</v>
@@ -2523,10 +2523,10 @@
         <v>3.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="N19" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="I20" t="n">
         <v>1.02</v>
@@ -2633,10 +2633,10 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="N20" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.08</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>3.74</v>
       </c>
       <c r="M21" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="N21" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -2755,10 +2755,10 @@
         <v>3.15</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
         <v>1.27</v>
@@ -2788,10 +2788,10 @@
         <v>1.54</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="AD21" t="n">
         <v>1.19</v>
@@ -2800,7 +2800,7 @@
         <v>1.38</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AG21" t="n">
         <v>2.18</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="G22" t="n">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="N22" t="n">
-        <v>2.29</v>
+        <v>2.26</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -2957,16 +2957,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M23" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="N23" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3052,52 +3052,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.47</v>
+        <v>3.8</v>
       </c>
       <c r="G24" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="N24" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V24" t="n">
         <v>1.64</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3183,10 +3183,10 @@
         <v>3.82</v>
       </c>
       <c r="M25" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="N25" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="I26" t="n">
         <v>1.01</v>
@@ -3293,10 +3293,10 @@
         <v>3.64</v>
       </c>
       <c r="M26" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="N26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -3335,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AD26" t="n">
         <v>1.17</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="G27" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>1.03</v>
@@ -3403,10 +3403,10 @@
         <v>4.78</v>
       </c>
       <c r="M27" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="N27" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -3445,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE27" t="n">
         <v>1.24</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>3.21</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>2.64</v>
       </c>
       <c r="I28" t="n">
         <v>1.02</v>
@@ -3513,10 +3513,10 @@
         <v>5.2</v>
       </c>
       <c r="M28" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="N28" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="O28" t="n">
         <v>1.3</v>
@@ -3555,16 +3555,16 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE28" t="n">
         <v>1.24</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>3.85</v>
+        <v>3.37</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="I29" t="n">
         <v>1.02</v>
@@ -3623,10 +3623,10 @@
         <v>5.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="N29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -3665,16 +3665,16 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE29" t="n">
         <v>1.3</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>3.76</v>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>3.56</v>
       </c>
       <c r="H30" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="I30" t="n">
         <v>1.03</v>
@@ -3733,10 +3733,10 @@
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="N30" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O30" t="n">
         <v>1.28</v>
@@ -3775,13 +3775,13 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AD30" t="n">
         <v>1.17</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="G31" t="n">
-        <v>4.05</v>
+        <v>3.46</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3.42</v>
       </c>
       <c r="I31" t="n">
         <v>1.02</v>
@@ -3843,10 +3843,10 @@
         <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="N31" t="n">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="O31" t="n">
         <v>1.27</v>
@@ -3885,16 +3885,16 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE31" t="n">
         <v>1.26</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I32" t="n">
         <v>1.01</v>
@@ -3953,10 +3953,10 @@
         <v>3.7</v>
       </c>
       <c r="M32" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N32" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O32" t="n">
         <v>1.38</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="G33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.65</v>
       </c>
       <c r="I33" t="n">
         <v>1.03</v>
@@ -4063,10 +4063,10 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="N33" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O33" t="n">
         <v>1.27</v>
@@ -4105,16 +4105,16 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE33" t="n">
         <v>1.3</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="G34" t="n">
-        <v>3.77</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
@@ -4176,7 +4176,7 @@
         <v>1.65</v>
       </c>
       <c r="N34" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -4224,13 +4224,13 @@
         <v>3.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE34" t="n">
         <v>1.36</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AG34" t="n">
         <v>2.09</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="G35" t="n">
-        <v>4.08</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>4.35</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
         <v>1.02</v>
@@ -4283,10 +4283,10 @@
         <v>5.15</v>
       </c>
       <c r="M35" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="N35" t="n">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="O35" t="n">
         <v>1.22</v>
@@ -4325,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="I36" t="n">
         <v>1.04</v>
@@ -4393,10 +4393,10 @@
         <v>4.35</v>
       </c>
       <c r="M36" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O36" t="n">
         <v>1.33</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -4503,7 +4503,7 @@
         <v>3.8</v>
       </c>
       <c r="M37" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="G38" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="I38" t="n">
         <v>1.11</v>
@@ -4607,16 +4607,16 @@
         <v>6.5</v>
       </c>
       <c r="K38" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="L38" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M38" t="n">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="O38" t="n">
         <v>1.57</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="I39" t="n">
         <v>1.06</v>
@@ -4723,10 +4723,10 @@
         <v>2.9</v>
       </c>
       <c r="M39" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="N39" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O39" t="n">
         <v>1.5</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G40" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="H40" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="I40" t="n">
         <v>1.07</v>
@@ -4833,10 +4833,10 @@
         <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="N40" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I41" t="n">
         <v>1.06</v>
@@ -4943,10 +4943,10 @@
         <v>3.2</v>
       </c>
       <c r="M41" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="N41" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="I42" t="n">
         <v>1.08</v>
@@ -5053,10 +5053,10 @@
         <v>2.88</v>
       </c>
       <c r="M42" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="N42" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
         <v>1.1</v>
@@ -5163,10 +5163,10 @@
         <v>2.75</v>
       </c>
       <c r="M43" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="N43" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O43" t="n">
         <v>1.53</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="I44" t="n">
         <v>1.05</v>
@@ -5273,10 +5273,10 @@
         <v>2.9</v>
       </c>
       <c r="M44" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="N44" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="O44" t="n">
         <v>1.44</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
         <v>1.03</v>
@@ -5383,10 +5383,10 @@
         <v>4.6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="N45" t="n">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="O45" t="n">
         <v>1.33</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="I46" t="n">
         <v>1.05</v>
@@ -5493,10 +5493,10 @@
         <v>3.17</v>
       </c>
       <c r="M46" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="N46" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="O46" t="n">
         <v>1.41</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
         <v>1.01</v>
@@ -5603,10 +5603,10 @@
         <v>3.55</v>
       </c>
       <c r="M47" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O47" t="n">
         <v>1.36</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="G48" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H48" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="I48" t="n">
         <v>1.05</v>
@@ -5713,10 +5713,10 @@
         <v>3.65</v>
       </c>
       <c r="M48" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="N48" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O48" t="n">
         <v>1.36</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="I49" t="n">
         <v>1.08</v>
@@ -5823,10 +5823,10 @@
         <v>2.95</v>
       </c>
       <c r="M49" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N49" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -5874,10 +5874,10 @@
         <v>2.45</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF49" t="n">
         <v>1.66</v>
@@ -5886,7 +5886,7 @@
         <v>2.1</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="50">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="G50" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
-        <v>4.69</v>
+        <v>5.3</v>
       </c>
       <c r="I50" t="n">
         <v>1.05</v>
@@ -5933,10 +5933,10 @@
         <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="N50" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="G51" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H51" t="n">
-        <v>3.69</v>
+        <v>3.85</v>
       </c>
       <c r="I51" t="n">
         <v>1.08</v>
@@ -6043,10 +6043,10 @@
         <v>2.8</v>
       </c>
       <c r="M51" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N51" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="O51" t="n">
         <v>1.5</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="G52" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="H52" t="n">
-        <v>6.84</v>
+        <v>6.1</v>
       </c>
       <c r="I52" t="n">
         <v>1.06</v>
@@ -6153,10 +6153,10 @@
         <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O52" t="n">
         <v>1.43</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="G53" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
-        <v>6.39</v>
+        <v>6.1</v>
       </c>
       <c r="I53" t="n">
         <v>1.06</v>
@@ -6263,10 +6263,10 @@
         <v>3.24</v>
       </c>
       <c r="M53" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="O53" t="n">
         <v>1.4</v>
@@ -6352,31 +6352,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="H54" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J54" t="n">
         <v>7.5</v>
       </c>
       <c r="K54" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="L54" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="M54" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="N54" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="O54" t="n">
         <v>1.57</v>
@@ -6415,25 +6415,25 @@
         <v>2.83</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH54" t="n">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="G55" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="I55" t="n">
         <v>1.08</v>
@@ -6483,10 +6483,10 @@
         <v>2.7</v>
       </c>
       <c r="M55" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N55" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O55" t="n">
         <v>1.47</v>
@@ -6572,19 +6572,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="G56" t="n">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="H56" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I56" t="n">
         <v>1.04</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K56" t="n">
         <v>1.36</v>
@@ -6593,10 +6593,10 @@
         <v>2.88</v>
       </c>
       <c r="M56" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O56" t="n">
         <v>1.5</v>
@@ -6635,28 +6635,28 @@
         <v>2.84</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="57">
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="G57" t="n">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="H57" t="n">
-        <v>2.62</v>
+        <v>2.07</v>
       </c>
       <c r="I57" t="n">
         <v>1.08</v>
@@ -6703,10 +6703,10 @@
         <v>2.8</v>
       </c>
       <c r="M57" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="N57" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O57" t="n">
         <v>1.52</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="H58" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="I58" t="n">
         <v>1.03</v>
@@ -6813,10 +6813,10 @@
         <v>3.9</v>
       </c>
       <c r="M58" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O58" t="n">
         <v>1.3</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="G59" t="n">
-        <v>3.26</v>
+        <v>2.87</v>
       </c>
       <c r="H59" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="I59" t="n">
         <v>1.07</v>
@@ -6923,10 +6923,10 @@
         <v>2.8</v>
       </c>
       <c r="M59" t="n">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="N59" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="O59" t="n">
         <v>1.45</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H60" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="I60" t="n">
         <v>1.06</v>
@@ -7033,10 +7033,10 @@
         <v>3.4</v>
       </c>
       <c r="M60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O60" t="n">
         <v>1.45</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.54</v>
+        <v>2.95</v>
       </c>
       <c r="G61" t="n">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="H61" t="n">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="I61" t="n">
         <v>1.03</v>
@@ -7143,10 +7143,10 @@
         <v>3.8</v>
       </c>
       <c r="M61" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O61" t="n">
         <v>1.35</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="G62" t="n">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I62" t="n">
         <v>1.04</v>
@@ -7253,10 +7253,10 @@
         <v>3.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N62" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O62" t="n">
         <v>1.38</v>
@@ -7304,7 +7304,7 @@
         <v>2.88</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE62" t="n">
         <v>1.35</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="G63" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="I63" t="n">
         <v>1.04</v>
@@ -7363,10 +7363,10 @@
         <v>3.4</v>
       </c>
       <c r="M63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N63" t="n">
         <v>1.88</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.82</v>
       </c>
       <c r="O63" t="n">
         <v>1.4</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.97</v>
+        <v>3.77</v>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="H64" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="I64" t="n">
         <v>1.03</v>
@@ -7473,7 +7473,7 @@
         <v>4.1</v>
       </c>
       <c r="M64" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N64" t="n">
         <v>2.1</v>
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="H65" t="n">
-        <v>2.55</v>
+        <v>2.78</v>
       </c>
       <c r="I65" t="n">
         <v>1.04</v>
@@ -7583,10 +7583,10 @@
         <v>3.7</v>
       </c>
       <c r="M65" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="N65" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O65" t="n">
         <v>1.35</v>
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="G66" t="n">
-        <v>3.62</v>
+        <v>3.31</v>
       </c>
       <c r="H66" t="n">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="I66" t="n">
         <v>1.05</v>
@@ -7693,10 +7693,10 @@
         <v>3.4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="N66" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="O66" t="n">
         <v>1.36</v>
@@ -7735,28 +7735,28 @@
         <v>3.22</v>
       </c>
       <c r="AA66" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE66" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG66" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH66" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="67">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="G67" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="H67" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="I67" t="n">
         <v>1.02</v>
@@ -7803,10 +7803,10 @@
         <v>3.8</v>
       </c>
       <c r="M67" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="N67" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="G68" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="H68" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="I68" t="n">
         <v>1.03</v>
@@ -7913,10 +7913,10 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="N68" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -7955,28 +7955,28 @@
         <v>2.35</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="69">
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.31</v>
+        <v>2.39</v>
       </c>
       <c r="G69" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>1.07</v>
@@ -8023,10 +8023,10 @@
         <v>2.95</v>
       </c>
       <c r="M69" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="O69" t="n">
         <v>1.44</v>
@@ -8074,19 +8074,19 @@
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="70">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G70" t="n">
-        <v>3.65</v>
+        <v>3.54</v>
       </c>
       <c r="H70" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="I70" t="n">
         <v>1.02</v>
@@ -8175,28 +8175,28 @@
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE70" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="71">
@@ -8222,13 +8222,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.47</v>
+        <v>2.41</v>
       </c>
       <c r="G71" t="n">
-        <v>3.77</v>
+        <v>3.65</v>
       </c>
       <c r="H71" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I71" t="n">
         <v>1.01</v>
@@ -8285,28 +8285,28 @@
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="72">
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="G72" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I72" t="n">
         <v>1.03</v>
@@ -8353,10 +8353,10 @@
         <v>3.95</v>
       </c>
       <c r="M72" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="N72" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="O72" t="n">
         <v>1.33</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G73" t="n">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="H73" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="I73" t="n">
         <v>1.04</v>
@@ -8463,10 +8463,10 @@
         <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O73" t="n">
         <v>1.33</v>
@@ -8552,13 +8552,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>3.26</v>
       </c>
       <c r="H74" t="n">
-        <v>5.5</v>
+        <v>4.76</v>
       </c>
       <c r="I74" t="n">
         <v>1.07</v>
@@ -8576,7 +8576,7 @@
         <v>2.2</v>
       </c>
       <c r="N74" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O74" t="n">
         <v>1.44</v>
@@ -8627,13 +8627,13 @@
         <v>0</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF74" t="n">
         <v>1.95</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH74" t="n">
         <v>0</v>
@@ -8665,16 +8665,16 @@
         <v>3.05</v>
       </c>
       <c r="G75" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>2.51</v>
+        <v>2.14</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="K75" t="n">
         <v>1.31</v>
@@ -8683,10 +8683,10 @@
         <v>3.1</v>
       </c>
       <c r="M75" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N75" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O75" t="n">
         <v>1.44</v>
@@ -8725,28 +8725,28 @@
         <v>2.74</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB75" t="n">
         <v>5.75</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE75" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF75" t="n">
         <v>1.95</v>
       </c>
       <c r="AG75" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -8772,13 +8772,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G76" t="n">
-        <v>3.75</v>
+        <v>3.56</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>5.11</v>
       </c>
       <c r="I76" t="n">
         <v>1.06</v>
@@ -8793,10 +8793,10 @@
         <v>3.25</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N76" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O76" t="n">
         <v>1.39</v>
@@ -8903,10 +8903,10 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N77" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -8992,52 +8992,52 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="G78" t="n">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
-        <v>2.71</v>
+        <v>2.84</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M78" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="N78" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V78" t="n">
         <v>1.58</v>
@@ -9212,13 +9212,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I80" t="n">
         <v>1.07</v>
@@ -9233,10 +9233,10 @@
         <v>3.25</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="N80" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O80" t="n">
         <v>1.4</v>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G81" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="I81" t="n">
         <v>1.03</v>
@@ -9343,10 +9343,10 @@
         <v>3.75</v>
       </c>
       <c r="M81" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N81" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="O81" t="n">
         <v>1.31</v>
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H82" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I82" t="n">
         <v>1.04</v>
@@ -9453,10 +9453,10 @@
         <v>3.3</v>
       </c>
       <c r="M82" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="N82" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O82" t="n">
         <v>1.36</v>
@@ -9504,7 +9504,7 @@
         <v>2.05</v>
       </c>
       <c r="AD82" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE82" t="n">
         <v>1.3</v>
@@ -9542,13 +9542,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="H83" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="I83" t="n">
         <v>1.02</v>
@@ -9563,10 +9563,10 @@
         <v>4.2</v>
       </c>
       <c r="M83" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="N83" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="O83" t="n">
         <v>1.28</v>
@@ -9614,7 +9614,7 @@
         <v>1.37</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE83" t="n">
         <v>1.44</v>
@@ -9652,10 +9652,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>6</v>
@@ -9673,10 +9673,10 @@
         <v>3.4</v>
       </c>
       <c r="M84" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="N84" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="O84" t="n">
         <v>1.36</v>
@@ -9762,13 +9762,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H85" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I85" t="n">
         <v>1.05</v>
@@ -9783,10 +9783,10 @@
         <v>3.3</v>
       </c>
       <c r="M85" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="N85" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="O85" t="n">
         <v>1.36</v>
@@ -9834,7 +9834,7 @@
         <v>2.29</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE85" t="n">
         <v>1.31</v>
@@ -9872,13 +9872,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H86" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I86" t="n">
         <v>1.04</v>
@@ -9893,10 +9893,10 @@
         <v>3.75</v>
       </c>
       <c r="M86" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N86" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O86" t="n">
         <v>1.34</v>
@@ -9944,7 +9944,7 @@
         <v>2.76</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE86" t="n">
         <v>1.35</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="G87" t="n">
         <v>3.6</v>
       </c>
       <c r="H87" t="n">
-        <v>4.33</v>
+        <v>4.95</v>
       </c>
       <c r="I87" t="n">
         <v>1.04</v>
@@ -10003,10 +10003,10 @@
         <v>3.6</v>
       </c>
       <c r="M87" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="N87" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -10092,13 +10092,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="I88" t="n">
         <v>1.05</v>
@@ -10116,7 +10116,7 @@
         <v>2.05</v>
       </c>
       <c r="N88" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O88" t="n">
         <v>1.4</v>
@@ -10161,22 +10161,22 @@
         <v>6</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF88" t="n">
         <v>1.74</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="89">
@@ -10202,52 +10202,52 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="H89" t="n">
         <v>1.65</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M89" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="N89" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V89" t="n">
         <v>1.18</v>
@@ -10312,13 +10312,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="H90" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="I90" t="n">
         <v>1.02</v>
@@ -10336,7 +10336,7 @@
         <v>1.6</v>
       </c>
       <c r="N90" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="O90" t="n">
         <v>1.3</v>
@@ -10375,28 +10375,28 @@
         <v>3.04</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="91">
@@ -10422,13 +10422,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I91" t="n">
         <v>1.04</v>
@@ -10443,10 +10443,10 @@
         <v>3.7</v>
       </c>
       <c r="M91" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O91" t="n">
         <v>1.36</v>
@@ -10485,28 +10485,28 @@
         <v>2.53</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -10532,13 +10532,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G92" t="n">
-        <v>3.75</v>
+        <v>3.33</v>
       </c>
       <c r="H92" t="n">
-        <v>7</v>
+        <v>5.78</v>
       </c>
       <c r="I92" t="n">
         <v>1.1</v>
@@ -10556,7 +10556,7 @@
         <v>2.35</v>
       </c>
       <c r="N92" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O92" t="n">
         <v>1.44</v>
@@ -10642,13 +10642,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.75</v>
+        <v>3.54</v>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="I93" t="n">
         <v>1.06</v>
@@ -10663,10 +10663,10 @@
         <v>3.25</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N93" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O93" t="n">
         <v>1.4</v>
@@ -10752,13 +10752,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="H94" t="n">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="I94" t="n">
         <v>1.08</v>
@@ -10773,10 +10773,10 @@
         <v>2.9</v>
       </c>
       <c r="M94" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N94" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="O94" t="n">
         <v>1.47</v>
@@ -10862,13 +10862,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="G95" t="n">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="H95" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
         <v>1.09</v>
@@ -10883,10 +10883,10 @@
         <v>2.8</v>
       </c>
       <c r="M95" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N95" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O95" t="n">
         <v>1.5</v>
@@ -10972,13 +10972,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="H96" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
         <v>1.11</v>
@@ -10987,16 +10987,16 @@
         <v>6</v>
       </c>
       <c r="K96" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="L96" t="n">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="M96" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="N96" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="O96" t="n">
         <v>1.57</v>
@@ -11044,16 +11044,16 @@
         <v>3.35</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE96" t="n">
         <v>1.71</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH96" t="n">
         <v>0</v>
@@ -11082,13 +11082,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="G97" t="n">
-        <v>3.75</v>
+        <v>3.38</v>
       </c>
       <c r="H97" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I97" t="n">
         <v>1.07</v>
@@ -11103,10 +11103,10 @@
         <v>3</v>
       </c>
       <c r="M97" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N97" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O97" t="n">
         <v>1.43</v>
@@ -11192,13 +11192,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="H98" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="I98" t="n">
         <v>1.08</v>
@@ -11216,7 +11216,7 @@
         <v>2.15</v>
       </c>
       <c r="N98" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O98" t="n">
         <v>1.45</v>
@@ -11302,13 +11302,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="G99" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H99" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -11323,10 +11323,10 @@
         <v>4.15</v>
       </c>
       <c r="M99" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="N99" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="O99" t="n">
         <v>1.31</v>
@@ -11412,13 +11412,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="G100" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H100" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I100" t="n">
         <v>1.03</v>
@@ -11433,10 +11433,10 @@
         <v>3.75</v>
       </c>
       <c r="M100" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N100" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O100" t="n">
         <v>1.33</v>
@@ -11478,7 +11478,7 @@
         <v>1.28</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC100" t="n">
         <v>4.1</v>
@@ -11487,16 +11487,16 @@
         <v>0</v>
       </c>
       <c r="AE100" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG100" t="n">
         <v>1.86</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="101">
@@ -11522,13 +11522,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>1.08</v>
@@ -11543,10 +11543,10 @@
         <v>2.75</v>
       </c>
       <c r="M101" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N101" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="O101" t="n">
         <v>1.48</v>
@@ -11632,13 +11632,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H102" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="I102" t="n">
         <v>1.01</v>
@@ -11653,10 +11653,10 @@
         <v>3.63</v>
       </c>
       <c r="M102" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N102" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O102" t="n">
         <v>1.35</v>
@@ -11742,13 +11742,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="G103" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H103" t="n">
-        <v>9.5</v>
+        <v>7.12</v>
       </c>
       <c r="I103" t="n">
         <v>1.01</v>
@@ -11763,10 +11763,10 @@
         <v>5.1</v>
       </c>
       <c r="M103" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="N103" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="O103" t="n">
         <v>1.25</v>
@@ -11852,13 +11852,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="G104" t="n">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="H104" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="I104" t="n">
         <v>1.08</v>
@@ -11873,10 +11873,10 @@
         <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="N104" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O104" t="n">
         <v>1.4</v>
@@ -11962,13 +11962,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G105" t="n">
-        <v>3.23</v>
+        <v>2.87</v>
       </c>
       <c r="H105" t="n">
-        <v>3.83</v>
+        <v>3.37</v>
       </c>
       <c r="I105" t="n">
         <v>1.1</v>
@@ -11977,16 +11977,16 @@
         <v>5.8</v>
       </c>
       <c r="K105" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L105" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M105" t="n">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="N105" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="O105" t="n">
         <v>1.53</v>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H106" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="I106" t="n">
         <v>1.03</v>
@@ -12093,10 +12093,10 @@
         <v>4.3</v>
       </c>
       <c r="M106" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="N106" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O106" t="n">
         <v>1.3</v>
@@ -12182,13 +12182,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="G107" t="n">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
-        <v>2.64</v>
+        <v>2.86</v>
       </c>
       <c r="I107" t="n">
         <v>1.04</v>
@@ -12203,10 +12203,10 @@
         <v>3.75</v>
       </c>
       <c r="M107" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="N107" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="O107" t="n">
         <v>1.36</v>
@@ -12402,13 +12402,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G109" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="I109" t="n">
         <v>1.02</v>
@@ -12423,10 +12423,10 @@
         <v>4.75</v>
       </c>
       <c r="M109" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="N109" t="n">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="O109" t="n">
         <v>1.25</v>
@@ -12512,13 +12512,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="G110" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I110" t="n">
         <v>1.01</v>
@@ -12533,10 +12533,10 @@
         <v>3.75</v>
       </c>
       <c r="M110" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="N110" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="O110" t="n">
         <v>1.33</v>
@@ -12622,13 +12622,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="H111" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I111" t="n">
         <v>1.05</v>
@@ -12643,10 +12643,10 @@
         <v>3.6</v>
       </c>
       <c r="M111" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="N111" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O111" t="n">
         <v>1.36</v>
@@ -12732,13 +12732,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="H112" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I112" t="n">
         <v>1.01</v>
@@ -12753,10 +12753,10 @@
         <v>4.3</v>
       </c>
       <c r="M112" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N112" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
@@ -12795,28 +12795,28 @@
         <v>0</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB112" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH112" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="113">
@@ -12842,13 +12842,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G113" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H113" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="I113" t="n">
         <v>1.01</v>
@@ -12866,7 +12866,7 @@
         <v>1.75</v>
       </c>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O113" t="n">
         <v>1.4</v>
@@ -12952,13 +12952,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I114" t="n">
         <v>1.06</v>
@@ -12973,10 +12973,10 @@
         <v>2.95</v>
       </c>
       <c r="M114" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N114" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O114" t="n">
         <v>1.46</v>
@@ -13015,28 +13015,28 @@
         <v>3.6</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AB114" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD114" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE114" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH114" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="115">
@@ -13062,13 +13062,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="G115" t="n">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="H115" t="n">
-        <v>4.88</v>
+        <v>4.59</v>
       </c>
       <c r="I115" t="n">
         <v>1.05</v>
@@ -13083,10 +13083,10 @@
         <v>3.08</v>
       </c>
       <c r="M115" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N115" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O115" t="n">
         <v>1.44</v>
@@ -13172,13 +13172,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="G116" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="I116" t="n">
         <v>1.05</v>
@@ -13193,10 +13193,10 @@
         <v>2.9</v>
       </c>
       <c r="M116" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="N116" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O116" t="n">
         <v>1.5</v>
@@ -13235,28 +13235,28 @@
         <v>2.45</v>
       </c>
       <c r="AA116" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AB116" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AC116" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD116" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE116" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF116" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AG116" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AH116" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="117">
@@ -13345,28 +13345,28 @@
         <v>3.79</v>
       </c>
       <c r="AA117" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AB117" t="n">
         <v>0</v>
       </c>
       <c r="AC117" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD117" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE117" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF117" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG117" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH117" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="118">
@@ -13392,13 +13392,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I118" t="n">
         <v>1.08</v>
@@ -13413,10 +13413,10 @@
         <v>2.99</v>
       </c>
       <c r="M118" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="N118" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O118" t="n">
         <v>1.44</v>
@@ -13502,13 +13502,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="G119" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H119" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="I119" t="n">
         <v>1.02</v>
@@ -13523,10 +13523,10 @@
         <v>4.33</v>
       </c>
       <c r="M119" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N119" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O119" t="n">
         <v>1.3</v>
@@ -13535,10 +13535,10 @@
         <v>3.2</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="R119" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S119" t="n">
         <v>1.42</v>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="G120" t="n">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="H120" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="I120" t="n">
         <v>1.09</v>
@@ -13633,10 +13633,10 @@
         <v>2.7</v>
       </c>
       <c r="M120" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="N120" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O120" t="n">
         <v>1.52</v>
@@ -13675,28 +13675,28 @@
         <v>2.18</v>
       </c>
       <c r="AA120" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB120" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC120" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD120" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE120" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF120" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG120" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH120" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="121">
@@ -13722,13 +13722,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G121" t="n">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="H121" t="n">
-        <v>5.49</v>
+        <v>5.26</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -13743,10 +13743,10 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="N121" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -13832,13 +13832,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="G122" t="n">
-        <v>3.65</v>
+        <v>3.27</v>
       </c>
       <c r="H122" t="n">
-        <v>3.65</v>
+        <v>3.06</v>
       </c>
       <c r="I122" t="n">
         <v>1.03</v>
@@ -13853,10 +13853,10 @@
         <v>3.95</v>
       </c>
       <c r="M122" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="N122" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -14052,13 +14052,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3.26</v>
+        <v>3.5</v>
       </c>
       <c r="G124" t="n">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="H124" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="I124" t="n">
         <v>1.05</v>
@@ -14073,7 +14073,7 @@
         <v>3.4</v>
       </c>
       <c r="M124" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="N124" t="n">
         <v>1.83</v>
@@ -14124,7 +14124,7 @@
         <v>1.68</v>
       </c>
       <c r="AD124" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE124" t="n">
         <v>1.3</v>
@@ -14162,13 +14162,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>3.62</v>
       </c>
       <c r="H125" t="n">
-        <v>4.75</v>
+        <v>4.07</v>
       </c>
       <c r="I125" t="n">
         <v>1.02</v>
@@ -14183,10 +14183,10 @@
         <v>4.6</v>
       </c>
       <c r="M125" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N125" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O125" t="n">
         <v>1.27</v>
@@ -14272,13 +14272,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="G126" t="n">
-        <v>3.52</v>
+        <v>3.6</v>
       </c>
       <c r="H126" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="I126" t="n">
         <v>1.07</v>
@@ -14293,10 +14293,10 @@
         <v>3</v>
       </c>
       <c r="M126" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="N126" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O126" t="n">
         <v>1.43</v>
@@ -14492,13 +14492,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="G128" t="n">
-        <v>4.25</v>
+        <v>4.85</v>
       </c>
       <c r="H128" t="n">
-        <v>3.85</v>
+        <v>7.25</v>
       </c>
       <c r="I128" t="n">
         <v>1.03</v>
@@ -14513,10 +14513,10 @@
         <v>4.33</v>
       </c>
       <c r="M128" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="N128" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O128" t="n">
         <v>1.29</v>
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4.55</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
         <v>4.1</v>
@@ -14623,10 +14623,10 @@
         <v>5.75</v>
       </c>
       <c r="M129" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="N129" t="n">
-        <v>2.51</v>
+        <v>2.26</v>
       </c>
       <c r="O129" t="n">
         <v>1.21</v>
@@ -14715,10 +14715,10 @@
         <v>2.46</v>
       </c>
       <c r="G130" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="H130" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="I130" t="n">
         <v>1.06</v>
@@ -14733,10 +14733,10 @@
         <v>3.07</v>
       </c>
       <c r="M130" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="N130" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O130" t="n">
         <v>1.45</v>
@@ -14745,10 +14745,10 @@
         <v>2.6</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R130" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S130" t="n">
         <v>1.48</v>
@@ -14775,28 +14775,28 @@
         <v>3.68</v>
       </c>
       <c r="AA130" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AB130" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC130" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD130" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE130" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF130" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AG130" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AH130" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="131">
@@ -14822,13 +14822,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="G131" t="n">
-        <v>2.94</v>
+        <v>2.71</v>
       </c>
       <c r="H131" t="n">
-        <v>2.79</v>
+        <v>2.58</v>
       </c>
       <c r="I131" t="n">
         <v>1.04</v>
@@ -14843,10 +14843,10 @@
         <v>2.71</v>
       </c>
       <c r="M131" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="N131" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O131" t="n">
         <v>1.5</v>
@@ -14932,13 +14932,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.81</v>
+        <v>2.44</v>
       </c>
       <c r="G132" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H132" t="n">
-        <v>3.8</v>
+        <v>2.29</v>
       </c>
       <c r="I132" t="n">
         <v>1.02</v>
@@ -14953,10 +14953,10 @@
         <v>5.25</v>
       </c>
       <c r="M132" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="N132" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="O132" t="n">
         <v>1.25</v>
@@ -15007,13 +15007,13 @@
         <v>0</v>
       </c>
       <c r="AE132" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF132" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG132" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH132" t="n">
         <v>0</v>
@@ -15042,13 +15042,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G133" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="H133" t="n">
-        <v>4.32</v>
+        <v>4.17</v>
       </c>
       <c r="I133" t="n">
         <v>1.09</v>
@@ -15063,10 +15063,10 @@
         <v>2.7</v>
       </c>
       <c r="M133" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="N133" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O133" t="n">
         <v>1.51</v>
@@ -15105,13 +15105,13 @@
         <v>3.26</v>
       </c>
       <c r="AA133" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB133" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC133" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AD133" t="n">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>2.37</v>
       </c>
       <c r="AH133" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="134">
@@ -15152,13 +15152,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="G134" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="I134" t="n">
         <v>1.02</v>
@@ -15173,10 +15173,10 @@
         <v>3.2</v>
       </c>
       <c r="M134" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N134" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O134" t="n">
         <v>1.4</v>
@@ -15372,13 +15372,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="I136" t="n">
         <v>1.04</v>
@@ -15393,10 +15393,10 @@
         <v>2.9</v>
       </c>
       <c r="M136" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="N136" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O136" t="n">
         <v>1.44</v>
@@ -15482,13 +15482,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G137" t="n">
-        <v>3.78</v>
+        <v>3.66</v>
       </c>
       <c r="H137" t="n">
-        <v>3.63</v>
+        <v>3.52</v>
       </c>
       <c r="I137" t="n">
         <v>1.02</v>
@@ -15545,28 +15545,28 @@
         <v>0</v>
       </c>
       <c r="AA137" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB137" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC137" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AD137" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE137" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF137" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG137" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH137" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="138">
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="G138" t="n">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="H138" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="I138" t="n">
         <v>1.1</v>
@@ -15613,10 +15613,10 @@
         <v>2.35</v>
       </c>
       <c r="M138" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="N138" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="O138" t="n">
         <v>1.57</v>
@@ -15676,7 +15676,7 @@
         <v>3.08</v>
       </c>
       <c r="AH138" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="139">
@@ -15702,13 +15702,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="H139" t="n">
-        <v>5.25</v>
+        <v>5.64</v>
       </c>
       <c r="I139" t="n">
         <v>1.03</v>
@@ -15723,10 +15723,10 @@
         <v>2.95</v>
       </c>
       <c r="M139" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N139" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="O139" t="n">
         <v>1.44</v>
@@ -15812,10 +15812,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="G140" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>3.1</v>
@@ -15833,10 +15833,10 @@
         <v>2.95</v>
       </c>
       <c r="M140" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N140" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O140" t="n">
         <v>1.44</v>
@@ -15922,13 +15922,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="G141" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="H141" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="I141" t="n">
         <v>1.06</v>
@@ -15943,10 +15943,10 @@
         <v>3.1</v>
       </c>
       <c r="M141" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N141" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O141" t="n">
         <v>1.4</v>
@@ -15985,19 +15985,19 @@
         <v>3.5</v>
       </c>
       <c r="AA141" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AB141" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC141" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD141" t="n">
         <v>0</v>
       </c>
       <c r="AE141" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF141" t="n">
         <v>1.58</v>
@@ -16032,13 +16032,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G142" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="H142" t="n">
-        <v>4.12</v>
+        <v>3.97</v>
       </c>
       <c r="I142" t="n">
         <v>1.1</v>
@@ -16053,10 +16053,10 @@
         <v>2.48</v>
       </c>
       <c r="M142" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="N142" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O142" t="n">
         <v>1.44</v>
@@ -16095,16 +16095,16 @@
         <v>2.57</v>
       </c>
       <c r="AA142" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB142" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC142" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AD142" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE142" t="n">
         <v>1.61</v>
@@ -16116,7 +16116,7 @@
         <v>2.46</v>
       </c>
       <c r="AH142" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="143">
@@ -16142,13 +16142,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="G143" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="H143" t="n">
-        <v>7.5</v>
+        <v>6.83</v>
       </c>
       <c r="I143" t="n">
         <v>1.03</v>
@@ -16163,10 +16163,10 @@
         <v>4.15</v>
       </c>
       <c r="M143" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N143" t="n">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="O143" t="n">
         <v>1.3</v>
@@ -16205,28 +16205,28 @@
         <v>3.57</v>
       </c>
       <c r="AA143" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AB143" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC143" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD143" t="n">
         <v>0</v>
       </c>
       <c r="AE143" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF143" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG143" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH143" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="144">
@@ -16252,13 +16252,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G144" t="n">
-        <v>5.2</v>
+        <v>5.09</v>
       </c>
       <c r="H144" t="n">
-        <v>9.6</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I144" t="n">
         <v>1.03</v>
@@ -16273,10 +16273,10 @@
         <v>4.33</v>
       </c>
       <c r="M144" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="N144" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="O144" t="n">
         <v>1.29</v>
@@ -16315,22 +16315,22 @@
         <v>3.36</v>
       </c>
       <c r="AA144" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AB144" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC144" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD144" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE144" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF144" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG144" t="n">
         <v>1.79</v>
@@ -16362,13 +16362,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="G145" t="n">
-        <v>4.03</v>
+        <v>3.79</v>
       </c>
       <c r="H145" t="n">
-        <v>4.37</v>
+        <v>4.1</v>
       </c>
       <c r="I145" t="n">
         <v>1.02</v>
@@ -16383,10 +16383,10 @@
         <v>3.48</v>
       </c>
       <c r="M145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N145" t="n">
         <v>1.81</v>
-      </c>
-      <c r="N145" t="n">
-        <v>1.9</v>
       </c>
       <c r="O145" t="n">
         <v>1.36</v>
@@ -16425,28 +16425,28 @@
         <v>2.42</v>
       </c>
       <c r="AA145" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB145" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC145" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AD145" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE145" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF145" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG145" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH145" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="146">
@@ -16582,13 +16582,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="G147" t="n">
-        <v>3.43</v>
+        <v>3.26</v>
       </c>
       <c r="H147" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="I147" t="n">
         <v>1.03</v>
@@ -16603,10 +16603,10 @@
         <v>5.2</v>
       </c>
       <c r="M147" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N147" t="n">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="O147" t="n">
         <v>1.3</v>
@@ -16645,28 +16645,28 @@
         <v>2.57</v>
       </c>
       <c r="AA147" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AB147" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC147" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AD147" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE147" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF147" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG147" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH147" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="148">
@@ -16692,13 +16692,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="G148" t="n">
         <v>5.5</v>
       </c>
       <c r="H148" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I148" t="n">
         <v>1.02</v>
@@ -16713,10 +16713,10 @@
         <v>5</v>
       </c>
       <c r="M148" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N148" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O148" t="n">
         <v>1.29</v>
@@ -16802,13 +16802,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G149" t="n">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I149" t="n">
         <v>1.07</v>
@@ -16817,16 +16817,16 @@
         <v>11</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M149" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="N149" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="O149" t="n">
         <v>1.4</v>
@@ -16886,7 +16886,7 @@
         <v>2.1</v>
       </c>
       <c r="AH149" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="150">
@@ -16912,13 +16912,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G150" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="H150" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="I150" t="n">
         <v>1.06</v>
@@ -16927,16 +16927,16 @@
         <v>6.6</v>
       </c>
       <c r="K150" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="L150" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M150" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="N150" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="O150" t="n">
         <v>1.53</v>
@@ -17022,13 +17022,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="G151" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="H151" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="I151" t="n">
         <v>1.06</v>
@@ -17043,10 +17043,10 @@
         <v>2.8</v>
       </c>
       <c r="M151" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N151" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="O151" t="n">
         <v>1.45</v>
@@ -17085,28 +17085,28 @@
         <v>2.77</v>
       </c>
       <c r="AA151" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB151" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC151" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AD151" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE151" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF151" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG151" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH151" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="152">
@@ -17132,13 +17132,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2.55</v>
+        <v>1.87</v>
       </c>
       <c r="G152" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H152" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="I152" t="n">
         <v>1.06</v>
@@ -17153,10 +17153,10 @@
         <v>3.2</v>
       </c>
       <c r="M152" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N152" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="O152" t="n">
         <v>1.44</v>
@@ -17260,7 +17260,7 @@
         <v>1.5</v>
       </c>
       <c r="L153" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="M153" t="n">
         <v>2.38</v>
@@ -17352,13 +17352,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G154" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H154" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I154" t="n">
         <v>1.02</v>
@@ -17415,28 +17415,28 @@
         <v>0</v>
       </c>
       <c r="AA154" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB154" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC154" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AD154" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE154" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF154" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG154" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH154" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="155">
@@ -17462,13 +17462,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="G155" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="H155" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="I155" t="n">
         <v>1.01</v>
@@ -17525,28 +17525,28 @@
         <v>0</v>
       </c>
       <c r="AA155" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB155" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC155" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AD155" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE155" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF155" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG155" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH155" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="156">
@@ -17572,13 +17572,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="G156" t="n">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="H156" t="n">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="I156" t="n">
         <v>1.07</v>
@@ -17593,10 +17593,10 @@
         <v>2.9</v>
       </c>
       <c r="M156" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="N156" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O156" t="n">
         <v>1.46</v>
@@ -17635,28 +17635,28 @@
         <v>2.96</v>
       </c>
       <c r="AA156" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AB156" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC156" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD156" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE156" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF156" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG156" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AH156" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="157">
@@ -17682,13 +17682,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G157" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H157" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="I157" t="n">
         <v>1.01</v>
@@ -17745,28 +17745,28 @@
         <v>0</v>
       </c>
       <c r="AA157" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AB157" t="n">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="AC157" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD157" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE157" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF157" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG157" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AH157" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="158">
@@ -17792,13 +17792,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="G158" t="n">
-        <v>3.17</v>
+        <v>3.01</v>
       </c>
       <c r="H158" t="n">
-        <v>4.7</v>
+        <v>4.42</v>
       </c>
       <c r="I158" t="n">
         <v>1.04</v>
@@ -17813,10 +17813,10 @@
         <v>2.5</v>
       </c>
       <c r="M158" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N158" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O158" t="n">
         <v>1.5</v>
@@ -17855,16 +17855,16 @@
         <v>2.28</v>
       </c>
       <c r="AA158" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AB158" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC158" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AD158" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE158" t="n">
         <v>1.66</v>
@@ -17873,10 +17873,10 @@
         <v>2.06</v>
       </c>
       <c r="AG158" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH158" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="159">
@@ -17902,13 +17902,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="G159" t="n">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="H159" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="I159" t="n">
         <v>1.05</v>
@@ -17923,10 +17923,10 @@
         <v>3.4</v>
       </c>
       <c r="M159" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="N159" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="O159" t="n">
         <v>1.38</v>
@@ -17974,7 +17974,7 @@
         <v>2.26</v>
       </c>
       <c r="AD159" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE159" t="n">
         <v>1.29</v>
@@ -18012,13 +18012,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="G160" t="n">
-        <v>3.37</v>
+        <v>3.18</v>
       </c>
       <c r="H160" t="n">
-        <v>5.2</v>
+        <v>4.86</v>
       </c>
       <c r="I160" t="n">
         <v>1.04</v>
@@ -18033,10 +18033,10 @@
         <v>2.65</v>
       </c>
       <c r="M160" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="N160" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O160" t="n">
         <v>1.51</v>
@@ -18075,22 +18075,22 @@
         <v>2.58</v>
       </c>
       <c r="AA160" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AB160" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC160" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AD160" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF160" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AG160" t="n">
         <v>0</v>
@@ -18232,13 +18232,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4.47</v>
+        <v>5.08</v>
       </c>
       <c r="G162" t="n">
-        <v>3.65</v>
+        <v>3.71</v>
       </c>
       <c r="H162" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -18253,10 +18253,10 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="N162" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O162" t="n">
         <v>0</v>
@@ -18342,13 +18342,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3.88</v>
+        <v>3.67</v>
       </c>
       <c r="G163" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="H163" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="I163" t="n">
         <v>1.09</v>
@@ -18363,10 +18363,10 @@
         <v>2.63</v>
       </c>
       <c r="M163" t="n">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="N163" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O163" t="n">
         <v>1.5</v>
@@ -18405,22 +18405,22 @@
         <v>2.26</v>
       </c>
       <c r="AA163" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AB163" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC163" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AD163" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE163" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF163" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG163" t="n">
         <v>0</v>
@@ -18452,13 +18452,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="G164" t="n">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="H164" t="n">
-        <v>3.17</v>
+        <v>3.02</v>
       </c>
       <c r="I164" t="n">
         <v>1.06</v>
@@ -18473,10 +18473,10 @@
         <v>2.35</v>
       </c>
       <c r="M164" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="N164" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="O164" t="n">
         <v>1.57</v>
@@ -18515,28 +18515,28 @@
         <v>2.56</v>
       </c>
       <c r="AA164" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB164" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC164" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AD164" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE164" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF164" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG164" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH164" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="165">
@@ -18562,13 +18562,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="G165" t="n">
-        <v>3.63</v>
+        <v>3.42</v>
       </c>
       <c r="H165" t="n">
-        <v>4.83</v>
+        <v>4.52</v>
       </c>
       <c r="I165" t="n">
         <v>1.03</v>
@@ -18583,10 +18583,10 @@
         <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N165" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="O165" t="n">
         <v>1.36</v>
@@ -18672,13 +18672,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="G166" t="n">
-        <v>3.38</v>
+        <v>3.04</v>
       </c>
       <c r="H166" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="I166" t="n">
         <v>1.07</v>
@@ -18693,10 +18693,10 @@
         <v>2.7</v>
       </c>
       <c r="M166" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N166" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O166" t="n">
         <v>1.52</v>
@@ -18782,13 +18782,13 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H167" t="n">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="I167" t="n">
         <v>1.06</v>
@@ -18803,10 +18803,10 @@
         <v>2.9</v>
       </c>
       <c r="M167" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N167" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="O167" t="n">
         <v>1.44</v>
@@ -19002,52 +19002,52 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H169" t="n">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J169" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M169" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N169" t="n">
         <v>1.57</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P169" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R169" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S169" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T169" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U169" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V169" t="n">
         <v>1.33</v>
@@ -19065,13 +19065,13 @@
         <v>3.34</v>
       </c>
       <c r="AA169" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AB169" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC169" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD169" t="n">
         <v>0</v>
@@ -19080,7 +19080,7 @@
         <v>0</v>
       </c>
       <c r="AF169" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG169" t="n">
         <v>0</v>
@@ -19112,13 +19112,13 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="G170" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="H170" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="I170" t="n">
         <v>1.07</v>
@@ -19130,13 +19130,13 @@
         <v>1.5</v>
       </c>
       <c r="L170" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M170" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="N170" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="O170" t="n">
         <v>1.57</v>
@@ -19175,28 +19175,28 @@
         <v>3.11</v>
       </c>
       <c r="AA170" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB170" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC170" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AD170" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE170" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF170" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG170" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH170" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="171">
@@ -19222,13 +19222,13 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="G171" t="n">
-        <v>4.1</v>
+        <v>3.02</v>
       </c>
       <c r="H171" t="n">
-        <v>5.95</v>
+        <v>3.52</v>
       </c>
       <c r="I171" t="n">
         <v>1.05</v>
@@ -19243,10 +19243,10 @@
         <v>3.5</v>
       </c>
       <c r="M171" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="N171" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O171" t="n">
         <v>1.36</v>
